--- a/WCAG Tableau Compliance Checklist.xlsx
+++ b/WCAG Tableau Compliance Checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Parker\Documents\Clients\AOUSC\WCAG Accessibility\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eric Parker\Documents\Clients\Alaska Department of Health\Training Materials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF18A60A-6E8C-4046-AF92-964D62317F73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8254661-AB5F-4F9D-BC2F-D5A55DB241C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{D0BF1C26-0518-44F9-8838-BE5EACA405A3}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="127">
   <si>
     <t>Principle 1 - Perceivable</t>
   </si>
@@ -414,6 +414,9 @@
   </si>
   <si>
     <t>Use Multi-Select Sets in Calculations: https://onenumber.biz/blog-1/2023/5/3/use-multi-select-sets-in-tableau-calculations</t>
+  </si>
+  <si>
+    <t>WCAG Mobile Accessibility: https://www.w3.org/WAI/standards-guidelines/mobile/</t>
   </si>
 </sst>
 </file>
@@ -886,10 +889,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51991F16-E881-48E3-9A1B-803E688DE569}">
-  <dimension ref="A1:Q211"/>
+  <dimension ref="A1:Q212"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G170" sqref="G170"/>
+    <sheetView tabSelected="1" topLeftCell="A195" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J216" sqref="J216"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.4"/>
@@ -1894,7 +1897,7 @@
         <v>61</v>
       </c>
       <c r="C205" s="3" t="s">
-        <v>73</v>
+        <v>126</v>
       </c>
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.4">
@@ -1902,7 +1905,7 @@
         <v>61</v>
       </c>
       <c r="C206" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.4">
@@ -1910,16 +1913,24 @@
         <v>61</v>
       </c>
       <c r="C207" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="B208" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="C208" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="210" spans="1:1" s="8" customFormat="1" ht="24.75" x14ac:dyDescent="0.65">
-      <c r="A210" s="2" t="s">
+    <row r="211" spans="1:1" s="8" customFormat="1" ht="24.75" x14ac:dyDescent="0.65">
+      <c r="A211" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A211" s="4" t="s">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A212" s="4" t="s">
         <v>82</v>
       </c>
     </row>
